--- a/spec/fixtures/StatisticsReport.xlsx
+++ b/spec/fixtures/StatisticsReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchengjiang/Downloads/606project/FPR-Extraction-Metrics/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02117EB7-31B6-684A-B297-3FDA9DA39FCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8C0230-0BFA-C54E-A014-E1D7D2CAE720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" tabRatio="460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015CDeptStatisticsReport (1)" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -959,9 +959,7 @@
       <c r="K3" s="1">
         <v>0.9</v>
       </c>
-      <c r="L3" s="1">
-        <v>4.07</v>
-      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1">
         <v>0.79900000000000004</v>
       </c>

--- a/spec/fixtures/StatisticsReport.xlsx
+++ b/spec/fixtures/StatisticsReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchengjiang/Downloads/606project/FPR-Extraction-Metrics/spec/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taige/Developer/FPR-Extraction-Metrics/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8C0230-0BFA-C54E-A014-E1D7D2CAE720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F38C17-9346-2B4D-8837-7A84EC950306}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="24240" windowHeight="15540" tabRatio="460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015CDeptStatisticsReport (1)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>Term</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>Scott Deaton</t>
+  </si>
+  <si>
+    <t>ENGR</t>
+  </si>
+  <si>
+    <t>Not CSCE</t>
+  </si>
+  <si>
+    <t>PETE</t>
   </si>
 </sst>
 </file>
@@ -560,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2131,6 +2140,459 @@
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
     </row>
+    <row r="11" spans="1:51" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>500</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.069</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.397</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="R11" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1.113</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="X11" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1.069</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+    </row>
+    <row r="12" spans="1:51" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>110</v>
+      </c>
+      <c r="D12" s="1">
+        <v>500</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.069</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.397</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="R12" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="T12" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.113</v>
+      </c>
+      <c r="V12" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>1.069</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+    </row>
+    <row r="13" spans="1:51" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>500</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.069</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.397</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="T13" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1.113</v>
+      </c>
+      <c r="V13" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="X13" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>1.069</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
